--- a/1 Stim/StimA.xlsx
+++ b/1 Stim/StimA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickm\OneDrive\Documents\GitHub\Mediated-Reactivity\1 Stim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFEB440-9C29-401F-A1F2-86F7BFFC8E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D287F5A-E789-40C6-BE23-CBE8F40BA41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="12200" windowHeight="9600" xr2:uid="{4E90AFB4-3589-4698-9593-B034AD7F1DE8}"/>
+    <workbookView xWindow="1400" yWindow="1400" windowWidth="12200" windowHeight="9600" xr2:uid="{4E90AFB4-3589-4698-9593-B034AD7F1DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
   <si>
     <t>Cue</t>
   </si>
@@ -74,12 +74,6 @@
     <t>Pie</t>
   </si>
   <si>
-    <t>Deer</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
     <t>Cry</t>
   </si>
   <si>
@@ -89,36 +83,15 @@
     <t>Syrup</t>
   </si>
   <si>
-    <t>Sky</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
     <t>Bat</t>
   </si>
   <si>
     <t>Bounce</t>
   </si>
   <si>
-    <t>Minute</t>
-  </si>
-  <si>
-    <t>Glass</t>
-  </si>
-  <si>
-    <t>Knife</t>
-  </si>
-  <si>
-    <t>Trigger</t>
-  </si>
-  <si>
     <t>Phone</t>
   </si>
   <si>
-    <t>Letter</t>
-  </si>
-  <si>
     <t>Circle</t>
   </si>
   <si>
@@ -230,54 +203,15 @@
     <t>Fiction</t>
   </si>
   <si>
-    <t>Death</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>Park</t>
-  </si>
-  <si>
-    <t>Hungry</t>
-  </si>
-  <si>
-    <t>Woman</t>
-  </si>
-  <si>
     <t>Soon</t>
   </si>
   <si>
     <t>Belt</t>
   </si>
   <si>
-    <t>Discover</t>
-  </si>
-  <si>
-    <t>Floor</t>
-  </si>
-  <si>
-    <t>Sight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artery                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bronze                   </t>
-  </si>
-  <si>
     <t>Hand</t>
   </si>
   <si>
-    <t>Machine</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Digestion</t>
-  </si>
-  <si>
     <t>Wage</t>
   </si>
   <si>
@@ -287,15 +221,9 @@
     <t>Swan</t>
   </si>
   <si>
-    <t>Paw</t>
-  </si>
-  <si>
     <t>Hygiene</t>
   </si>
   <si>
-    <t>Herd</t>
-  </si>
-  <si>
     <t>Credit</t>
   </si>
   <si>
@@ -305,9 +233,6 @@
     <t>Tuna</t>
   </si>
   <si>
-    <t>Stomach</t>
-  </si>
-  <si>
     <t>Money</t>
   </si>
   <si>
@@ -317,9 +242,6 @@
     <t>Bird</t>
   </si>
   <si>
-    <t>Dog</t>
-  </si>
-  <si>
     <t>Clean</t>
   </si>
   <si>
@@ -374,12 +296,6 @@
     <t>Cake</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Leg</t>
-  </si>
-  <si>
     <t>Sign</t>
   </si>
   <si>
@@ -395,33 +311,6 @@
     <t>Hard</t>
   </si>
   <si>
-    <t>Cow</t>
-  </si>
-  <si>
-    <t>SHEARS</t>
-  </si>
-  <si>
-    <t>SCISSORS</t>
-  </si>
-  <si>
-    <t>TIE</t>
-  </si>
-  <si>
-    <t>SHOELACE</t>
-  </si>
-  <si>
-    <t>DETECTIVE</t>
-  </si>
-  <si>
-    <t>MYSTERY</t>
-  </si>
-  <si>
-    <t>CUT</t>
-  </si>
-  <si>
-    <t>CHOP</t>
-  </si>
-  <si>
     <t>Silk</t>
   </si>
   <si>
@@ -438,13 +327,37 @@
   </si>
   <si>
     <t>DONKEY</t>
+  </si>
+  <si>
+    <t>FUZZY</t>
+  </si>
+  <si>
+    <t>BANG</t>
+  </si>
+  <si>
+    <t>TEMPERATURE</t>
+  </si>
+  <si>
+    <t>Morning</t>
+  </si>
+  <si>
+    <t>AFFECTION</t>
+  </si>
+  <si>
+    <t>LOVE</t>
+  </si>
+  <si>
+    <t>DRINK</t>
+  </si>
+  <si>
+    <t>SIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +377,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -486,12 +405,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,11 +727,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62822242-3420-4550-A069-F6E0B72359D0}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28:K28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -826,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -838,22 +759,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -861,7 +782,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -898,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -935,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -972,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1009,36 +930,36 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.96</v>
+        <v>4.4800000000000004</v>
       </c>
       <c r="G6">
-        <v>2.6484000000000001</v>
+        <v>3.28</v>
       </c>
       <c r="H6">
         <f>LEN(C6)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>6.76</v>
+        <v>5.26</v>
       </c>
       <c r="J6">
-        <v>5.71</v>
+        <v>2.69</v>
       </c>
       <c r="K6">
         <f>LEN(D6)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1046,36 +967,36 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.4800000000000004</v>
+        <v>6.62</v>
       </c>
       <c r="G7">
-        <v>3.28</v>
+        <v>3.5206</v>
       </c>
       <c r="H7">
         <f>LEN(C7)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>5.26</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>2.69</v>
+        <v>2.4165999999999999</v>
       </c>
       <c r="K7">
         <f>LEN(D7)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1083,7 +1004,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1095,24 +1016,24 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.62</v>
+        <v>5.6</v>
       </c>
       <c r="G8">
-        <v>3.5206</v>
+        <v>3.0224000000000002</v>
       </c>
       <c r="H8">
         <f>LEN(C8)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>3.78</v>
       </c>
       <c r="J8">
-        <v>2.4165999999999999</v>
+        <v>2.7016</v>
       </c>
       <c r="K8">
         <f>LEN(D8)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1120,32 +1041,32 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>5.32</v>
+        <v>5.14</v>
       </c>
       <c r="G9">
-        <v>3.3591000000000002</v>
+        <v>3.0406</v>
       </c>
       <c r="H9">
         <f>LEN(C9)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>4.45</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="J9">
-        <v>3.3035999999999999</v>
+        <v>3.8780000000000001</v>
       </c>
       <c r="K9">
         <f>LEN(D9)</f>
@@ -1157,36 +1078,36 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>5.6</v>
+        <v>6.03</v>
       </c>
       <c r="G10">
-        <v>3.0224000000000002</v>
+        <v>3.68</v>
       </c>
       <c r="H10">
         <f>LEN(C10)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10">
-        <v>3.78</v>
+        <v>5.53</v>
       </c>
       <c r="J10">
-        <v>2.7016</v>
+        <v>3.14</v>
       </c>
       <c r="K10">
         <f>LEN(D10)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1194,36 +1115,36 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.52</v>
+        <v>6.02</v>
       </c>
       <c r="G11">
-        <v>4.2845000000000004</v>
+        <v>2.6303999999999998</v>
       </c>
       <c r="H11">
         <f>LEN(C11)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>6.31</v>
+        <v>5.68</v>
       </c>
       <c r="J11">
-        <v>3.4908999999999999</v>
+        <v>2.7745000000000002</v>
       </c>
       <c r="K11">
         <f>LEN(D11)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1231,36 +1152,36 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>6.08</v>
+        <v>4.32</v>
       </c>
       <c r="G12">
-        <v>3.3780000000000001</v>
+        <v>3.5249000000000001</v>
       </c>
       <c r="H12">
         <f>LEN(C12)</f>
-        <v>5</v>
-      </c>
-      <c r="I12" t="s">
-        <v>98</v>
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>6.94</v>
       </c>
       <c r="J12">
-        <v>2.9355000000000002</v>
+        <v>3.4131</v>
       </c>
       <c r="K12">
         <f>LEN(D12)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1268,32 +1189,32 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>6.02</v>
+        <v>5.54</v>
       </c>
       <c r="G13">
-        <v>4.1384999999999996</v>
+        <v>3.7138</v>
       </c>
       <c r="H13">
         <f>LEN(C13)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13">
-        <v>5.16</v>
+        <v>6.2</v>
       </c>
       <c r="J13">
-        <v>3.6246999999999998</v>
+        <v>3.2721</v>
       </c>
       <c r="K13">
         <f>LEN(D13)</f>
@@ -1305,36 +1226,36 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>5.14</v>
+        <v>4.67</v>
       </c>
       <c r="G14">
-        <v>3.0406</v>
+        <v>4.6116999999999999</v>
       </c>
       <c r="H14">
         <f>LEN(C14)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>4.9800000000000004</v>
+        <v>4.68</v>
       </c>
       <c r="J14">
-        <v>3.8780000000000001</v>
+        <v>3.6551</v>
       </c>
       <c r="K14">
         <f>LEN(D14)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1342,36 +1263,36 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>6.03</v>
+        <v>6.15</v>
       </c>
       <c r="G15">
-        <v>3.68</v>
+        <v>2.8407</v>
       </c>
       <c r="H15">
         <f>LEN(C15)</f>
         <v>5</v>
       </c>
       <c r="I15">
-        <v>5.53</v>
+        <v>5.7</v>
       </c>
       <c r="J15">
-        <v>3.14</v>
+        <v>3.8938999999999999</v>
       </c>
       <c r="K15">
         <f>LEN(D15)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1379,32 +1300,32 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>6.02</v>
+        <v>4.21</v>
       </c>
       <c r="G16">
-        <v>2.6303999999999998</v>
+        <v>4.2</v>
       </c>
       <c r="H16">
         <f>LEN(C16)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>5.68</v>
+        <v>6.28</v>
       </c>
       <c r="J16">
-        <v>2.7745000000000002</v>
+        <v>2.96</v>
       </c>
       <c r="K16">
         <f>LEN(D16)</f>
@@ -1416,36 +1337,34 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="F17">
-        <v>4.32</v>
+        <v>4.71</v>
       </c>
       <c r="G17">
-        <v>3.5249000000000001</v>
+        <v>2.3031999999999999</v>
       </c>
       <c r="H17">
-        <f>LEN(C17)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I17">
-        <v>6.94</v>
+        <v>5.76</v>
       </c>
       <c r="J17">
-        <v>3.4131</v>
+        <v>3.0596000000000001</v>
       </c>
       <c r="K17">
-        <f>LEN(D17)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1453,36 +1372,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="F18">
-        <v>5.54</v>
+        <v>4.33</v>
       </c>
       <c r="G18">
-        <v>3.7138</v>
+        <v>2.2040999999999999</v>
       </c>
       <c r="H18">
-        <f>LEN(C18)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>6.2</v>
+        <v>5.77</v>
       </c>
       <c r="J18">
-        <v>3.2721</v>
+        <v>4.5143000000000004</v>
       </c>
       <c r="K18">
-        <f>LEN(D18)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1490,35 +1407,33 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="F19">
-        <v>4.67</v>
+        <v>6.18</v>
       </c>
       <c r="G19">
-        <v>4.6116999999999999</v>
+        <v>2.2765</v>
       </c>
       <c r="H19">
-        <f>LEN(C19)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>4.68</v>
+        <v>5.98</v>
       </c>
       <c r="J19">
-        <v>3.6551</v>
+        <v>4.2775999999999996</v>
       </c>
       <c r="K19">
-        <f>LEN(D19)</f>
         <v>4</v>
       </c>
     </row>
@@ -1527,36 +1442,34 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="F20">
-        <v>6.15</v>
+        <v>5.39</v>
       </c>
       <c r="G20">
-        <v>2.8407</v>
+        <v>2.5550999999999999</v>
       </c>
       <c r="H20">
-        <f>LEN(C20)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I20">
-        <v>5.7</v>
+        <v>6.67</v>
       </c>
       <c r="J20">
-        <v>3.8938999999999999</v>
+        <v>2.4378000000000002</v>
       </c>
       <c r="K20">
-        <f>LEN(D20)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1564,141 +1477,136 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="F21">
-        <v>4.21</v>
+        <v>5.54</v>
       </c>
       <c r="G21">
-        <v>4.2</v>
+        <v>2.7284000000000002</v>
       </c>
       <c r="H21">
-        <f>LEN(C21)</f>
         <v>4</v>
       </c>
       <c r="I21">
-        <v>6.28</v>
+        <v>5.98</v>
       </c>
       <c r="J21">
-        <v>2.96</v>
+        <v>3.1488999999999998</v>
       </c>
       <c r="K21">
-        <f>LEN(D21)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22">
-        <f>A2+20</f>
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="E22">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="F22">
-        <v>4.71</v>
-      </c>
-      <c r="G22">
-        <v>2.3031999999999999</v>
+        <v>0.217</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I22">
-        <v>5.76</v>
+        <v>5.77</v>
       </c>
       <c r="J22">
-        <v>3.0596000000000001</v>
+        <v>3.3653</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23">
-        <f>A3+20</f>
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
         <v>79</v>
       </c>
-      <c r="D23" t="s">
-        <v>89</v>
-      </c>
       <c r="E23">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="F23" t="s">
-        <v>98</v>
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="F23">
+        <v>5.13</v>
       </c>
       <c r="G23">
-        <v>1.7242999999999999</v>
+        <v>4.0796999999999999</v>
       </c>
       <c r="H23">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I23">
-        <v>6.04</v>
+        <v>4.76</v>
       </c>
       <c r="J23">
-        <v>3.2370000000000001</v>
+        <v>3.0204</v>
       </c>
       <c r="K23">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24">
-        <f>A4+20</f>
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="E24">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="F24">
-        <v>4.33</v>
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="F24" t="s">
+        <v>72</v>
       </c>
       <c r="G24">
-        <v>2.2040999999999999</v>
+        <v>2.0373999999999999</v>
       </c>
       <c r="H24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I24">
-        <v>5.77</v>
+        <v>3.82</v>
       </c>
       <c r="J24">
-        <v>4.5143000000000004</v>
+        <v>3.7913000000000001</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -1706,323 +1614,314 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25">
-        <f>A5+20</f>
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="E25">
-        <v>4.5999999999999999E-2</v>
+        <v>0.73</v>
       </c>
       <c r="F25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="G25">
+        <v>2.8102</v>
       </c>
       <c r="H25">
-        <v>9</v>
-      </c>
-      <c r="I25" t="s">
-        <v>98</v>
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>4.74</v>
       </c>
       <c r="J25">
-        <v>3.0689000000000002</v>
+        <v>4.0654000000000003</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26">
-        <f>A6+20</f>
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E26">
-        <v>0.32600000000000001</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="F26">
-        <v>6.18</v>
+        <v>5.39</v>
       </c>
       <c r="G26">
-        <v>2.2765</v>
+        <v>2.5550999999999999</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>5.98</v>
+        <v>6.67</v>
       </c>
       <c r="J26">
-        <v>4.2775999999999996</v>
+        <v>2.4378000000000002</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27">
-        <f>A7+20</f>
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="E27">
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="F27" t="s">
-        <v>98</v>
+        <v>0.8</v>
+      </c>
+      <c r="F27">
+        <v>3.7</v>
       </c>
       <c r="G27">
-        <v>1.6901999999999999</v>
+        <v>2.6355</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I27">
-        <v>5.92</v>
+        <v>3.51</v>
       </c>
       <c r="J27">
-        <v>2.5339999999999998</v>
+        <v>4.7548000000000004</v>
       </c>
       <c r="K27">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28">
-        <f>A8+20</f>
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="E28">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="F28">
-        <v>5.39</v>
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="F28" t="s">
+        <v>72</v>
       </c>
       <c r="G28">
-        <v>2.5550999999999999</v>
+        <v>2.4165999999999999</v>
       </c>
       <c r="H28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>6.67</v>
+        <v>4.95</v>
       </c>
       <c r="J28">
-        <v>2.4378000000000002</v>
+        <v>4.101</v>
       </c>
       <c r="K28">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29">
-        <f>A9+20</f>
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="E29">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="F29">
-        <v>5.54</v>
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="F29" t="s">
+        <v>72</v>
       </c>
       <c r="G29">
-        <v>2.7284000000000002</v>
+        <v>3.3687999999999998</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I29">
-        <v>5.98</v>
+        <v>5.61</v>
       </c>
       <c r="J29">
-        <v>3.1488999999999998</v>
+        <v>3.6393</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30">
-        <f>A10+20</f>
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="E30">
-        <v>0.217</v>
-      </c>
-      <c r="F30" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" t="s">
-        <v>98</v>
+        <v>0.73</v>
+      </c>
+      <c r="F30">
+        <v>5.86</v>
+      </c>
+      <c r="G30">
+        <v>2.0453000000000001</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I30">
-        <v>5.77</v>
+        <v>5.62</v>
       </c>
       <c r="J30">
-        <v>3.3653</v>
+        <v>3.0651999999999999</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31">
-        <f>A11+20</f>
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="E31">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="F31" t="s">
-        <v>98</v>
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="F31">
+        <v>6.53</v>
       </c>
       <c r="G31">
-        <v>2.2040999999999999</v>
+        <v>2.6116999999999999</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>5.75</v>
+        <v>5.84</v>
       </c>
       <c r="J31">
-        <v>3.9927999999999999</v>
+        <v>3.6293000000000002</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32">
-        <f>A12+20</f>
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="E32">
-        <v>0.14099999999999999</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>5.13</v>
+        <v>5.91</v>
       </c>
       <c r="G32">
-        <v>4.0796999999999999</v>
+        <v>3.09</v>
       </c>
       <c r="H32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I32">
-        <v>4.76</v>
+        <v>4.82</v>
       </c>
       <c r="J32">
-        <v>3.0204</v>
+        <v>1.7924</v>
       </c>
       <c r="K32">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33">
-        <f>A13+20</f>
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="C33" t="s">
-        <v>84</v>
-      </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="E33">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="F33" t="s">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>4.63</v>
       </c>
       <c r="G33">
-        <v>2.0373999999999999</v>
+        <v>2.8744999999999998</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I33">
-        <v>3.82</v>
+        <v>5.76</v>
       </c>
       <c r="J33">
-        <v>3.7913000000000001</v>
+        <v>2.4942000000000002</v>
       </c>
       <c r="K33">
         <v>5</v>
@@ -2030,359 +1929,349 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34">
-        <f>A14+20</f>
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="E34">
-        <v>0.32700000000000001</v>
-      </c>
-      <c r="F34" t="s">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>3.18</v>
       </c>
       <c r="G34">
-        <v>1.5911</v>
+        <v>4.7750000000000004</v>
       </c>
       <c r="H34">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>5.55</v>
+        <v>6.47</v>
       </c>
       <c r="J34">
-        <v>3.3555000000000001</v>
+        <v>2.9186000000000001</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35">
-        <f>A15+20</f>
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="E35">
-        <v>0.73</v>
-      </c>
-      <c r="F35" t="s">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>4.2300000000000004</v>
       </c>
       <c r="G35">
-        <v>2.8102</v>
+        <v>1.5563</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I35">
-        <v>4.74</v>
+        <v>4.05</v>
       </c>
       <c r="J35">
-        <v>4.0654000000000003</v>
+        <v>2.7490000000000001</v>
       </c>
       <c r="K35">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36">
-        <f>A16+20</f>
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="E36">
-        <v>0.40200000000000002</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>5.39</v>
+        <v>6.45</v>
       </c>
       <c r="G36">
-        <v>2.5550999999999999</v>
+        <v>3.0621999999999998</v>
       </c>
       <c r="H36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I36">
-        <v>6.67</v>
+        <v>4.2</v>
       </c>
       <c r="J36">
-        <v>2.4378000000000002</v>
+        <v>2.9003999999999999</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37">
-        <f>A17+20</f>
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>47</v>
       </c>
       <c r="E37">
-        <v>0.38800000000000001</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>4.08</v>
+        <v>6.93</v>
       </c>
       <c r="G37">
-        <v>2.8420000000000001</v>
+        <v>3.3477000000000001</v>
       </c>
       <c r="H37">
         <v>4</v>
       </c>
       <c r="I37">
-        <v>4.1500000000000004</v>
+        <v>6.08</v>
       </c>
       <c r="J37">
-        <v>4.0689000000000002</v>
+        <v>3.4152999999999998</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38">
-        <f>A18+20</f>
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="E38">
-        <v>0.56200000000000006</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>5.05</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="G38">
-        <v>2.5575000000000001</v>
+        <v>2.1173000000000002</v>
       </c>
       <c r="H38">
         <v>4</v>
       </c>
       <c r="I38">
-        <v>6.12</v>
+        <v>6.02</v>
       </c>
       <c r="J38">
-        <v>3.1145999999999998</v>
+        <v>4.1384999999999996</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39">
-        <f>A19+20</f>
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="E39">
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="F39" t="s">
-        <v>98</v>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>5.53</v>
       </c>
       <c r="G39">
-        <v>3.3687999999999998</v>
+        <v>2.6385000000000001</v>
       </c>
       <c r="H39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>5.61</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J39">
-        <v>3.6393</v>
+        <v>3.3058000000000001</v>
       </c>
       <c r="K39">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40">
-        <f>A20+20</f>
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E40">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>5.86</v>
+        <v>4.04</v>
       </c>
       <c r="G40">
-        <v>2.0453000000000001</v>
+        <v>4.4438000000000004</v>
       </c>
       <c r="H40">
         <v>6</v>
       </c>
       <c r="I40">
-        <v>5.62</v>
+        <v>3</v>
       </c>
       <c r="J40">
-        <v>3.0651999999999999</v>
+        <v>2.4927999999999999</v>
       </c>
       <c r="K40">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41">
-        <f>A21+20</f>
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C41" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" t="s">
         <v>88</v>
       </c>
-      <c r="D41" t="s">
-        <v>97</v>
-      </c>
       <c r="E41">
-        <v>0.80800000000000005</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>6.53</v>
+        <v>6.08</v>
       </c>
       <c r="G41">
-        <v>2.6116999999999999</v>
+        <v>3.4152999999999998</v>
       </c>
       <c r="H41">
         <v>4</v>
       </c>
       <c r="I41">
-        <v>5.84</v>
+        <v>6.15</v>
       </c>
       <c r="J41">
-        <v>3.6293000000000002</v>
+        <v>2.7387999999999999</v>
       </c>
       <c r="K41">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42">
-        <f>A22+20</f>
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>5.91</v>
+        <v>2.54</v>
       </c>
       <c r="G42">
-        <v>3.09</v>
+        <v>4.1185999999999998</v>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I42">
-        <v>4.82</v>
+        <v>5.98</v>
       </c>
       <c r="J42">
-        <v>1.7924</v>
+        <v>3.0945</v>
       </c>
       <c r="K42">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43">
-        <f>A23+20</f>
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E43">
         <v>0</v>
       </c>
       <c r="F43">
-        <v>4.63</v>
+        <v>5.69</v>
       </c>
       <c r="G43">
-        <v>2.8744999999999998</v>
+        <v>2.5693999999999999</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>5.76</v>
+        <v>3.84</v>
       </c>
       <c r="J43">
-        <v>2.4942000000000002</v>
+        <v>3.3639999999999999</v>
       </c>
       <c r="K43">
         <v>5</v>
@@ -2390,789 +2279,275 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44">
-        <f>A24+20</f>
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>3.18</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="G44">
-        <v>4.7750000000000004</v>
+        <v>2.847</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I44">
-        <v>6.47</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="J44">
-        <v>2.9186000000000001</v>
+        <v>4.3501000000000003</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45">
-        <f>A25+20</f>
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" t="s">
-        <v>54</v>
+        <v>32</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>4.2300000000000004</v>
+        <v>6.11</v>
       </c>
       <c r="G45">
-        <v>1.5563</v>
+        <v>3.3614999999999999</v>
       </c>
       <c r="H45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <v>4.05</v>
+        <v>5.6</v>
       </c>
       <c r="J45">
-        <v>2.7490000000000001</v>
+        <v>4.1542000000000003</v>
       </c>
       <c r="K45">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46">
-        <f>A26+20</f>
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" t="s">
-        <v>61</v>
+        <v>97</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>6.45</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G46">
-        <v>3.0621999999999998</v>
+        <v>2.4742000000000002</v>
       </c>
       <c r="H46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I46">
         <v>4.2</v>
       </c>
       <c r="J46">
-        <v>2.9003999999999999</v>
+        <v>3.0085999999999999</v>
       </c>
       <c r="K46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="E48" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11">
+      <c r="F49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11">
+      <c r="E50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F50">
+        <f>AVERAGE(F2:F15)</f>
+        <v>5.4278571428571434</v>
+      </c>
+      <c r="G50">
+        <f>AVERAGE(G2:G15)</f>
+        <v>3.4106142857142858</v>
+      </c>
+      <c r="H50">
+        <f>AVERAGE(H2:H15)</f>
+        <v>4.8571428571428568</v>
+      </c>
+      <c r="I50">
+        <f>AVERAGE(I2:I15)</f>
+        <v>5.3578571428571431</v>
+      </c>
+      <c r="J50">
+        <f>AVERAGE(J2:J15)</f>
+        <v>3.2105571428571431</v>
+      </c>
+      <c r="K50">
+        <f>AVERAGE(K2:K15)</f>
+        <v>4.9285714285714288</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11">
+      <c r="E51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51">
+        <f>AVERAGE(F17:F31)</f>
+        <v>5.2759999999999998</v>
+      </c>
+      <c r="G51">
+        <f>AVERAGE(G17:G31)</f>
+        <v>2.6162571428571426</v>
+      </c>
+      <c r="H51">
+        <f>AVERAGE(H17:H31)</f>
+        <v>4.8666666666666663</v>
+      </c>
+      <c r="I51">
+        <f>AVERAGE(I17:I31)</f>
+        <v>5.4300000000000006</v>
+      </c>
+      <c r="J51">
+        <f>AVERAGE(J17:J31)</f>
+        <v>3.5538666666666665</v>
+      </c>
+      <c r="K51">
+        <f>AVERAGE(K17:K31)</f>
+        <v>5.0666666666666664</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11">
+      <c r="E52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52">
+        <f>AVERAGE(F32:F46)</f>
+        <v>5.0233333333333325</v>
+      </c>
+      <c r="G52">
+        <f>AVERAGE(G32:G46)</f>
+        <v>3.1127533333333335</v>
+      </c>
+      <c r="H52">
+        <f>AVERAGE(H32:H46)</f>
+        <v>5.333333333333333</v>
+      </c>
+      <c r="I52">
+        <f>AVERAGE(I32:I46)</f>
+        <v>5.0920000000000005</v>
+      </c>
+      <c r="J52">
+        <f>AVERAGE(J32:J46)</f>
+        <v>3.1278133333333336</v>
+      </c>
+      <c r="K52">
+        <f>AVERAGE(K32:K46)</f>
+        <v>5.1333333333333337</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11">
+      <c r="E53" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11">
+      <c r="D54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="4">
+        <f>AVERAGE(E17:E31)</f>
+        <v>0.44486666666666669</v>
+      </c>
+      <c r="F54">
+        <f>AVERAGE(F2:F46)</f>
+        <v>5.2077499999999999</v>
+      </c>
+      <c r="G54">
+        <f t="shared" ref="G54:K54" si="0">AVERAGE(G2:G46)</f>
+        <v>3.0742613636363632</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47">
-        <f>A27+20</f>
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>6.93</v>
-      </c>
-      <c r="G47">
-        <v>3.3477000000000001</v>
-      </c>
-      <c r="H47">
-        <v>4</v>
-      </c>
-      <c r="I47">
-        <v>6.08</v>
-      </c>
-      <c r="J47">
-        <v>3.4152999999999998</v>
-      </c>
-      <c r="K47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48">
-        <f>A28+20</f>
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="G48">
-        <v>2.1173000000000002</v>
-      </c>
-      <c r="H48">
-        <v>4</v>
-      </c>
-      <c r="I48">
-        <v>6.02</v>
-      </c>
-      <c r="J48">
-        <v>4.1384999999999996</v>
-      </c>
-      <c r="K48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49">
-        <f>A29+20</f>
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" t="s">
-        <v>62</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>5.53</v>
-      </c>
-      <c r="G49">
-        <v>2.6385000000000001</v>
-      </c>
-      <c r="H49">
-        <v>4</v>
-      </c>
-      <c r="I49">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="J49">
-        <v>3.3058000000000001</v>
-      </c>
-      <c r="K49">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50">
-        <f>A30+20</f>
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>4.04</v>
-      </c>
-      <c r="G50">
-        <v>4.4438000000000004</v>
-      </c>
-      <c r="H50">
-        <v>6</v>
-      </c>
-      <c r="I50">
-        <v>3</v>
-      </c>
-      <c r="J50">
-        <v>2.4927999999999999</v>
-      </c>
-      <c r="K50">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51">
-        <f>A31+20</f>
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>6.08</v>
-      </c>
-      <c r="G51">
-        <v>3.4152999999999998</v>
-      </c>
-      <c r="H51">
-        <v>4</v>
-      </c>
-      <c r="I51">
-        <v>6.15</v>
-      </c>
-      <c r="J51">
-        <v>2.7387999999999999</v>
-      </c>
-      <c r="K51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52">
-        <f>A32+20</f>
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>5.45</v>
-      </c>
-      <c r="G52">
-        <v>3.5657000000000001</v>
-      </c>
-      <c r="H52">
-        <v>4</v>
-      </c>
-      <c r="I52">
-        <v>4.24</v>
-      </c>
-      <c r="J52">
-        <v>3.5945999999999998</v>
-      </c>
-      <c r="K52">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53">
-        <f>A33+20</f>
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>5.16</v>
-      </c>
-      <c r="G53">
-        <v>3.8323999999999998</v>
-      </c>
-      <c r="H53">
-        <v>4</v>
-      </c>
-      <c r="I53">
-        <v>5.68</v>
-      </c>
-      <c r="J53">
-        <v>4.3456999999999999</v>
-      </c>
-      <c r="K53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54">
-        <f>A34+20</f>
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" t="s">
-        <v>70</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>2.54</v>
-      </c>
-      <c r="G54">
-        <v>4.1185999999999998</v>
-      </c>
-      <c r="H54">
-        <v>4</v>
-      </c>
       <c r="I54">
-        <v>5.98</v>
+        <f t="shared" si="0"/>
+        <v>5.3137777777777782</v>
       </c>
       <c r="J54">
-        <v>3.0945</v>
+        <f t="shared" si="0"/>
+        <v>3.2918444444444455</v>
       </c>
       <c r="K54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55">
-        <f>A35+20</f>
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" t="s">
-        <v>72</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>3.25</v>
-      </c>
-      <c r="G55">
-        <v>2.7888999999999999</v>
-      </c>
-      <c r="H55">
-        <v>8</v>
-      </c>
-      <c r="I55">
-        <v>5.47</v>
-      </c>
-      <c r="J55">
-        <v>3.7103999999999999</v>
-      </c>
-      <c r="K55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56">
-        <f>A36+20</f>
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" t="s">
-        <v>64</v>
-      </c>
-      <c r="D56" t="s">
-        <v>65</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>3.86</v>
-      </c>
-      <c r="G56">
-        <v>4.0434000000000001</v>
-      </c>
-      <c r="H56">
-        <v>5</v>
-      </c>
-      <c r="I56">
-        <v>4.05</v>
-      </c>
-      <c r="J56">
-        <v>4.2141000000000002</v>
-      </c>
-      <c r="K56">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57">
-        <f>A37+20</f>
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>5.69</v>
-      </c>
-      <c r="G57">
-        <v>2.5693999999999999</v>
-      </c>
-      <c r="H57">
-        <v>4</v>
-      </c>
-      <c r="I57">
-        <v>3.84</v>
-      </c>
-      <c r="J57">
-        <v>3.3639999999999999</v>
-      </c>
-      <c r="K57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58">
-        <f>A38+20</f>
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" t="s">
-        <v>75</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>6.28</v>
-      </c>
-      <c r="G58">
-        <v>2.4346000000000001</v>
-      </c>
-      <c r="H58">
-        <v>6</v>
-      </c>
-      <c r="I58">
-        <v>6.57</v>
-      </c>
-      <c r="J58">
-        <v>2.1583999999999999</v>
-      </c>
-      <c r="K58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59">
-        <f>A39+20</f>
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>6.11</v>
-      </c>
-      <c r="G59">
-        <v>3.3614999999999999</v>
-      </c>
-      <c r="H59">
-        <v>4</v>
-      </c>
-      <c r="I59">
-        <v>5.6</v>
-      </c>
-      <c r="J59">
-        <v>4.1542000000000003</v>
-      </c>
-      <c r="K59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60">
-        <f>A40+20</f>
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>6.75</v>
-      </c>
-      <c r="G60">
-        <v>3.5543999999999998</v>
-      </c>
-      <c r="H60">
-        <v>7</v>
-      </c>
-      <c r="I60">
-        <v>3.31</v>
-      </c>
-      <c r="J60">
-        <v>3.5655000000000001</v>
-      </c>
-      <c r="K60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61">
-        <f>A41+20</f>
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>41</v>
-      </c>
-      <c r="C61" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" t="s">
-        <v>113</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>6.28</v>
-      </c>
-      <c r="G61">
-        <v>3.5676000000000001</v>
-      </c>
-      <c r="H61">
-        <v>4</v>
-      </c>
-      <c r="I61">
-        <v>6.04</v>
-      </c>
-      <c r="J61">
-        <v>3.4598</v>
-      </c>
-      <c r="K61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="E63" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="F64" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="4:11">
-      <c r="E65" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F65">
-        <f>AVERAGE(F2:F20)</f>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G65">
-        <f>AVERAGE(G2:G20)</f>
-        <v>3.4503736842105268</v>
-      </c>
-      <c r="H65">
-        <f>AVERAGE(H2:H20)</f>
-        <v>4.7894736842105265</v>
-      </c>
-      <c r="I65">
-        <f>AVERAGE(I2:I20)</f>
-        <v>5.4272222222222233</v>
-      </c>
-      <c r="J65">
-        <f>AVERAGE(J2:J20)</f>
-        <v>3.3690789473684211</v>
-      </c>
-      <c r="K65">
-        <f>AVERAGE(K2:K20)</f>
-        <v>5.3157894736842106</v>
-      </c>
-    </row>
-    <row r="66" spans="4:11">
-      <c r="E66" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F66">
-        <f>AVERAGE(F22:F41)</f>
-        <v>5.2899999999999991</v>
-      </c>
-      <c r="G66">
-        <f>AVERAGE(G22:G41)</f>
-        <v>2.454705555555555</v>
-      </c>
-      <c r="H66">
-        <f>AVERAGE(H22:H41)</f>
-        <v>5.2</v>
-      </c>
-      <c r="I66">
-        <f>AVERAGE(I22:I41)</f>
-        <v>5.606315789473685</v>
-      </c>
-      <c r="J66">
-        <f>AVERAGE(J22:J41)</f>
-        <v>3.3911950000000006</v>
-      </c>
-      <c r="K66">
-        <f>AVERAGE(K22:K41)</f>
-        <v>5.05</v>
-      </c>
-    </row>
-    <row r="67" spans="4:11">
-      <c r="E67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F67">
-        <f>AVERAGE(F42:F61)</f>
-        <v>5.1684999999999999</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ref="G67:K67" si="0">AVERAGE(G42:G61)</f>
-        <v>3.2578550000000002</v>
-      </c>
-      <c r="H67">
         <f t="shared" si="0"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="0"/>
-        <v>5.1215000000000011</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="0"/>
-        <v>3.2303500000000005</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="0"/>
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="69" spans="4:11">
-      <c r="D69" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="1">
-        <f>AVERAGE(E22:E41)</f>
-        <v>0.40420000000000006</v>
-      </c>
-    </row>
-    <row r="70" spans="4:11">
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-    </row>
-    <row r="71" spans="4:11">
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="4:11">
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="4:11">
-      <c r="E73" s="1"/>
+        <v>5.0666666666666664</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11">
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="4:11">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="4:11">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="4:11">
+      <c r="E58" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
